--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA7029-3776-457B-B837-C397BE3A3587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E738054C-CA6B-4042-9F03-DEE535682D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="4344" yWindow="-60" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Requirements</t>
   </si>
@@ -72,9 +72,6 @@
     <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double) : String</t>
   </si>
   <si>
-    <t>registerVehicle(price : double, brand : String, model : int, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double) : String</t>
-  </si>
-  <si>
     <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double, typeCharger : int, batteryDuration : double, batteryConsume : double) : String</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>GasolineCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double)</t>
   </si>
   <si>
-    <t>ElectricCar(price : double, brand : String, model : int, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double)</t>
-  </si>
-  <si>
     <t>HybridCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double, typeCharger : int, batteryDuration : double, batteryConsume : double)</t>
   </si>
   <si>
@@ -124,6 +118,18 @@
   </si>
   <si>
     <t>getLicensePlate() : String</t>
+  </si>
+  <si>
+    <t>ElectricCar(price : double, brand : String, model : int,displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double)</t>
+  </si>
+  <si>
+    <t>registerVehicle(price : double, brand : String, model : int, displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double) : String</t>
+  </si>
+  <si>
+    <t>saveInParkingLot(model : int, isNew : boolean) : boolean</t>
+  </si>
+  <si>
+    <t>lookForSpaceinParkingLot(column : int) : int</t>
   </si>
 </sst>
 </file>
@@ -177,11 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -189,15 +192,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,37 +536,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -565,129 +574,140 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E738054C-CA6B-4042-9F03-DEE535682D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF877B5-9842-4E13-A2A0-BE1E7AD13477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="-60" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="1620" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Requirements</t>
   </si>
@@ -130,6 +130,42 @@
   </si>
   <si>
     <t>lookForSpaceinParkingLot(column : int) : int</t>
+  </si>
+  <si>
+    <t>R2. Register the information of a client</t>
+  </si>
+  <si>
+    <t>registerClient():void</t>
+  </si>
+  <si>
+    <t>registerClient(name : String, lastName : String, id : int, phoneNumber : String, email : String) : String</t>
+  </si>
+  <si>
+    <t>searchClient(id : int) : model.Client</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Client(name : String, lastName : String, id : int, phoneNumber : String, email : String)</t>
+  </si>
+  <si>
+    <t>R3. Register the information of a seller</t>
+  </si>
+  <si>
+    <t>registerSeller() : void</t>
+  </si>
+  <si>
+    <t>registerSeller(name : String, lastName : String, id : int) : String</t>
+  </si>
+  <si>
+    <t>searchSeller(id : int) : model.Seller</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Seller(name : String, lastName : String, id : int)</t>
   </si>
 </sst>
 </file>
@@ -183,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +589,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -559,7 +598,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -698,11 +737,76 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF877B5-9842-4E13-A2A0-BE1E7AD13477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51842D82-7007-4E12-8541-6EA28905A137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Requirements</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Seller(name : String, lastName : String, id : int)</t>
+  </si>
+  <si>
+    <t>R4. Assign a client to a seller</t>
+  </si>
+  <si>
+    <t>assignClient() : void</t>
+  </si>
+  <si>
+    <t>printClients() : int</t>
+  </si>
+  <si>
+    <t>assignClient(positionSeller : int, positionClient : int) : String</t>
+  </si>
+  <si>
+    <t>findClient(client : model.Client) : boolean</t>
+  </si>
+  <si>
+    <t>assignClient(client : model.Client, position : int) : void</t>
   </si>
 </sst>
 </file>
@@ -561,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,6 +827,43 @@
         <v>44</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51842D82-7007-4E12-8541-6EA28905A137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A213B9-24F3-40A5-BDB1-66F627714EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="-5052" yWindow="3852" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Requirements</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>assignClient(client : model.Client, position : int) : void</t>
+  </si>
+  <si>
+    <t>R5. Assign a vehicle of interest to a client</t>
+  </si>
+  <si>
+    <t>addVehicleOfInterest() : void</t>
+  </si>
+  <si>
+    <t>addVehicleOfInterest(id : int, licensePlate : String) : String</t>
+  </si>
+  <si>
+    <t>searchVehicle(licensePlate : String) : model.Vehicle</t>
+  </si>
+  <si>
+    <t>addInterestingVehicle(vehicle : model.Vehicle) : void</t>
   </si>
 </sst>
 </file>
@@ -579,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -859,9 +874,51 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A213B9-24F3-40A5-BDB1-66F627714EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF95965-5CCB-4912-8B59-E7961E880305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5052" yWindow="3852" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Requirements</t>
   </si>
@@ -63,18 +63,9 @@
     <t>Business</t>
   </si>
   <si>
-    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, isNew : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, type : int, gasolineCapacity : double, gasolineConsume : double) : String</t>
-  </si>
-  <si>
     <t>searchVehicle(licensePlate : String) : boolean</t>
   </si>
   <si>
-    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double) : String</t>
-  </si>
-  <si>
-    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double, typeCharger : int, batteryDuration : double, batteryConsume : double) : String</t>
-  </si>
-  <si>
     <t>createSoat(price : double, year : int, moneyCovered : double) : model.Soat</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>Motorcycle</t>
   </si>
   <si>
-    <t>Motorcycle(price : double, brand : String, model : int, displacement : double, milleage : double, isNew : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, type : int, gasolineCapacity : double, gasolineConsume : double)</t>
-  </si>
-  <si>
     <t>GasolineCar</t>
   </si>
   <si>
@@ -108,24 +96,12 @@
     <t>HybridCar</t>
   </si>
   <si>
-    <t>GasolineCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double)</t>
-  </si>
-  <si>
-    <t>HybridCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, gasolineConsume : double, typeCharger : int, batteryDuration : double, batteryConsume : double)</t>
-  </si>
-  <si>
     <t>Vehicle</t>
   </si>
   <si>
     <t>getLicensePlate() : String</t>
   </si>
   <si>
-    <t>ElectricCar(price : double, brand : String, model : int,displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double)</t>
-  </si>
-  <si>
-    <t>registerVehicle(price : double, brand : String, model : int, displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double, batteryConsume : double) : String</t>
-  </si>
-  <si>
     <t>saveInParkingLot(model : int, isNew : boolean) : boolean</t>
   </si>
   <si>
@@ -199,6 +175,36 @@
   </si>
   <si>
     <t>addInterestingVehicle(vehicle : model.Vehicle) : void</t>
+  </si>
+  <si>
+    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, isNew : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, type : int, gasolineCapacity : double) : String</t>
+  </si>
+  <si>
+    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int) : String</t>
+  </si>
+  <si>
+    <t>registerVehicle(price : double, brand : String, model : int, displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double) : String</t>
+  </si>
+  <si>
+    <t>registerVehicle(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int, typeCharger : int, batteryDuration : double) : String</t>
+  </si>
+  <si>
+    <t>Motorcycle(price : double, brand : String, model : int, displacement : double, milleage : double, isNew : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, type : int, gasolineCapacity : double)</t>
+  </si>
+  <si>
+    <t>GasolineCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int)</t>
+  </si>
+  <si>
+    <t>ElectricCar(price : double, brand : String, model : int,displacement:double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, typeCharger : int, batteryDuration : double)</t>
+  </si>
+  <si>
+    <t>HybridCar(price : double, brand : String, model : int, displacement : double, milleage : double, new : boolean, licensePlate : String, soat : model.Document, mechanicalTechnicalReview : model.Document, typeOfCar : int, numberOfDoors : int, tintedWindows : boolean, tankCapacity : double, typeOfFuel : int,  typeCharger : int, batteryDuration : double)</t>
+  </si>
+  <si>
+    <t>calculateGasolineConsume() : double</t>
+  </si>
+  <si>
+    <t>decode():String</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +634,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -631,7 +643,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -656,206 +668,203 @@
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>36</v>
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,62 +872,99 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF95965-5CCB-4912-8B59-E7961E880305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C5FD3-AB05-4103-B1A3-32CF4BD88281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="-7320" yWindow="5496" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Requirements</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>decode():String</t>
+  </si>
+  <si>
+    <t>printVehicles() : int</t>
+  </si>
+  <si>
+    <t>lookForVehicles(brand : String) : ArrayList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>lookForVehicles(model : int) : ArrayList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>lookForVehicles(displacement : double) : ArrayList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>toString():String</t>
   </si>
 </sst>
 </file>
@@ -606,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="108" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,14 +936,14 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -937,34 +952,62 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C5FD3-AB05-4103-B1A3-32CF4BD88281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC98F9-C0AA-4999-83CF-138DA0E7ACB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7320" yWindow="5496" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Requirements</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>toString():String</t>
+  </si>
+  <si>
+    <t>getInterestingVehicles() : ArrayList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>lookForVehicle(array : ArrayList&lt;model.Vehicle&gt;, vehicle : model.Vehicle) : boolean</t>
+  </si>
+  <si>
+    <t>R6. Show a complete report with all the data of the vehicles of interest of a client</t>
+  </si>
+  <si>
+    <t>showVehiclesOfInterest() : void</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,24 +1002,66 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC98F9-C0AA-4999-83CF-138DA0E7ACB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E5D84-6427-49E5-B2A8-2289F3D74183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Requirements</t>
   </si>
@@ -232,6 +232,39 @@
   </si>
   <si>
     <t>showVehiclesOfInterest() : void</t>
+  </si>
+  <si>
+    <t>R7. Calculate the total sale price of a vehicle</t>
+  </si>
+  <si>
+    <t>makeDiscount() : void</t>
+  </si>
+  <si>
+    <t>makeDiscount(percentage : double, vehicle : model.Vehicle) : String</t>
+  </si>
+  <si>
+    <t>setTotalPrice(totalPrice : double) : void</t>
+  </si>
+  <si>
+    <t>getTotalPrice() : double</t>
+  </si>
+  <si>
+    <t>getSoat() : model.Document</t>
+  </si>
+  <si>
+    <t>getMechanicalTechnicalReview() : model.Document</t>
+  </si>
+  <si>
+    <t>setSoat(soat : model.Document) : void</t>
+  </si>
+  <si>
+    <t>setMechanicalTechnicalReview(mechanicalTechnicalReview : model.Document) : void</t>
+  </si>
+  <si>
+    <t>toString() : String</t>
+  </si>
+  <si>
+    <t>calculateTotalCost() : double</t>
   </si>
 </sst>
 </file>
@@ -285,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +697,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -670,7 +706,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -844,9 +880,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
@@ -855,213 +889,347 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E5D84-6427-49E5-B2A8-2289F3D74183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE10DC-C959-4ED6-B14A-4C1CC61C25D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Requirements</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>calculateTotalCost() : double</t>
+  </si>
+  <si>
+    <t>R9. Show a catalogue as requested by the user</t>
+  </si>
+  <si>
+    <t>showCatalogue() : void</t>
+  </si>
+  <si>
+    <t>getNewVehicles(typeVehicle : int) : ArraList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>getUsedVehicles(typeVehicle : int) : ArraList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>getAllVehicles(typeVehicle : int) : ArraList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>getIsNew() : boolean</t>
   </si>
 </sst>
 </file>
@@ -669,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,12 +1170,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>21</v>
       </c>
@@ -1165,42 +1183,42 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>19</v>
       </c>
@@ -1224,12 +1242,54 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE10DC-C959-4ED6-B14A-4C1CC61C25D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120FE68E-CC65-445D-A9F5-443FC442145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Requirements</t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t>getIsNew() : boolean</t>
+  </si>
+  <si>
+    <t>R10. Consult for years the cars stored in the parking lot</t>
+  </si>
+  <si>
+    <t>lookForVehiclesInParkingLot() : void</t>
+  </si>
+  <si>
+    <t>getVehiclesInParkingLot(model : int) : ArraList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>ParkingLot</t>
+  </si>
+  <si>
+    <t>getVehicles() : model.Vehicle []</t>
+  </si>
+  <si>
+    <t>getModel() : int</t>
   </si>
 </sst>
 </file>
@@ -687,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,22 +1292,62 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>21</v>
       </c>
       <c r="C83" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120FE68E-CC65-445D-A9F5-443FC442145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FD29F-ED61-4509-A8A4-592BF84C3DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t>Requirements</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>getModel() : int</t>
+  </si>
+  <si>
+    <t>R11. Check if the parking lot is full</t>
+  </si>
+  <si>
+    <t>getParkingLot() : model.ParkingLot</t>
+  </si>
+  <si>
+    <t>getPositionEmpty() : int</t>
   </si>
 </sst>
 </file>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1359,38 @@
         <v>89</v>
       </c>
     </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FD29F-ED61-4509-A8A4-592BF84C3DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA02584-75F5-4193-9AC3-641C6A3D3265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>Requirements</t>
   </si>
@@ -310,6 +310,51 @@
   </si>
   <si>
     <t>getPositionEmpty() : int</t>
+  </si>
+  <si>
+    <t>R8. Sell a vehicle</t>
+  </si>
+  <si>
+    <t>sellVehicle() : void</t>
+  </si>
+  <si>
+    <t>sellVehicle(vehicle : model.Vehicle, client : model.Client) : String</t>
+  </si>
+  <si>
+    <t>findSellerInCharge(client : model.Client) : model.Seller</t>
+  </si>
+  <si>
+    <t>getTotalSales() : int</t>
+  </si>
+  <si>
+    <t>setTotalSales(totalSales : int) : void</t>
+  </si>
+  <si>
+    <t>setFreeClient(sellerInCharge : model.Seller, client : model.Client) : void</t>
+  </si>
+  <si>
+    <t>setLicensePlate(licensePlate : String) : void</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>getYear() : int</t>
+  </si>
+  <si>
+    <t>setOwner(owner : model.Client) : void</t>
+  </si>
+  <si>
+    <t>setSold(sold : boolean) : void</t>
+  </si>
+  <si>
+    <t>setActive(active : boolean) : void</t>
+  </si>
+  <si>
+    <t>getBoughtVehicles() : ArrayList&lt;model.Vehicle&gt;</t>
+  </si>
+  <si>
+    <t>removeVehicle(vehicle : model.Vehicle) : void</t>
   </si>
 </sst>
 </file>
@@ -714,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,115 +1324,274 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>21</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C110" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B111" t="s">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C111" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C114" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>21</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C115" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
         <v>9</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C117" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>87</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C119" t="s">
         <v>92</v>
       </c>
     </row>

--- a/CarDealer/docs/traceabillity.xlsx
+++ b/CarDealer/docs/traceabillity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Ramos\Desktop\Lab3\CarDealer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA02584-75F5-4193-9AC3-641C6A3D3265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B400BC3-2FB3-407C-ABFA-5B56A5511B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33BF50A6-F299-47D4-BDE9-EA9EF7C18228}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>Requirements</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>removeVehicle(vehicle : model.Vehicle) : void</t>
+  </si>
+  <si>
+    <t>setCode(code : String) : void</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -408,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,24 +436,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE54D6B-CD4A-424B-9A43-965713A2DE34}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +795,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -796,93 +804,93 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+      <c r="B3" s="8"/>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -891,14 +899,14 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
@@ -907,7 +915,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>57</v>
       </c>
@@ -923,14 +931,14 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -938,14 +946,14 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
@@ -954,8 +962,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -963,15 +971,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -979,580 +987,591 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>29</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="79" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="80" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="2" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="2" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="2" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="2" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="2" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="2" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="2" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>29</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>87</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>78</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
         <v>4</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>9</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C114" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,12 +1579,12 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -1575,16 +1594,16 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C117" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,12 +1611,69 @@
         <v>87</v>
       </c>
       <c r="C119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="18">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
